--- a/ERD.xlsx
+++ b/ERD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="0" windowWidth="23580" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>Question_options</t>
-  </si>
-  <si>
     <t>question_option_id</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Question_option</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="G3" s="18"/>
       <c r="J3" s="17" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K3" s="18"/>
     </row>
@@ -810,17 +810,17 @@
         <v>6</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>6</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -842,10 +842,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>7</v>
@@ -892,7 +892,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>6</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -947,7 +947,7 @@
     <row r="11" spans="1:13">
       <c r="B11" s="3"/>
       <c r="F11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -958,7 +958,7 @@
     <row r="12" spans="1:13">
       <c r="B12" s="5"/>
       <c r="F12" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -966,7 +966,7 @@
     <row r="13" spans="1:13">
       <c r="B13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="14"/>
@@ -974,7 +974,7 @@
     <row r="14" spans="1:13">
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5"/>
       <c r="J14" s="26"/>
@@ -983,7 +983,7 @@
     <row r="15" spans="1:13">
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5"/>
       <c r="J15" s="26"/>
@@ -992,14 +992,14 @@
     <row r="16" spans="1:13">
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="5"/>
       <c r="F17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -1007,7 +1007,7 @@
       <c r="B18" s="5"/>
       <c r="E18" s="14"/>
       <c r="F18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -1022,13 +1022,13 @@
       <c r="D19" s="12"/>
       <c r="E19" s="10"/>
       <c r="F19" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1036,13 +1036,13 @@
     <row r="20" spans="2:10">
       <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
